--- a/NformTester/NformTester/Keywordscripts/TST1547_VerifyNoDatabaseErrorOccuredInNavigationView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST1547_VerifyNoDatabaseErrorOccuredInNavigationView.xlsx
@@ -1213,7 +1213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7477" uniqueCount="841">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4033,21 +4033,7 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4772,10 +4758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4982,7 +4968,7 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -5076,18 +5062,16 @@
       <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D10" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="F10" s="19">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5103,25 +5087,25 @@
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15">
@@ -5136,10 +5120,10 @@
         <v>795</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>2</v>
@@ -5165,17 +5149,15 @@
         <v>795</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>813</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -5193,19 +5175,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>626</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -5224,19 +5206,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>626</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>628</v>
+        <v>255</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>825</v>
+        <v>4</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>812</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
@@ -5261,12 +5243,14 @@
         <v>626</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>17</v>
+        <v>628</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>825</v>
+      </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -5287,15 +5271,15 @@
         <v>795</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>99</v>
+        <v>633</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -5304,7 +5288,7 @@
       <c r="N17" s="20"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="15">
+    <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
         <v>783</v>
@@ -5312,13 +5296,19 @@
       <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="11"/>
+      <c r="D18" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -5338,11 +5328,11 @@
       <c r="D19" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>19</v>
+      <c r="E19" s="19" t="s">
+        <v>623</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>2</v>
@@ -5356,7 +5346,7 @@
       <c r="N19" s="20"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="15">
       <c r="A20" s="3" t="s">
         <v>785</v>
       </c>
@@ -5366,18 +5356,12 @@
       <c r="C20" s="5">
         <v>19</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D20" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="11"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -5399,18 +5383,16 @@
         <v>795</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="I21" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -5430,10 +5412,10 @@
         <v>795</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>2</v>
@@ -5455,16 +5437,16 @@
         <v>795</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="19"/>
@@ -5482,16 +5464,16 @@
         <v>795</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -5504,16 +5486,20 @@
         <v>24</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="F25" s="19">
-        <v>5</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="11"/>
+        <v>795</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>816</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
@@ -5529,8 +5515,8 @@
       <c r="D26" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>277</v>
+      <c r="E26" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>17</v>
@@ -5552,17 +5538,15 @@
         <v>26</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>2</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="F27" s="19">
+        <v>5</v>
+      </c>
+      <c r="G27" s="19"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="19"/>
@@ -5572,16 +5556,22 @@
       <c r="N27" s="20"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="15">
+    <row r="28" spans="1:15">
       <c r="C28" s="5">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="19"/>
@@ -5595,43 +5585,37 @@
       <c r="C29" s="5">
         <v>28</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>800</v>
+      <c r="D29" s="18" t="s">
+        <v>795</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="16"/>
+        <v>241</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="15">
       <c r="C30" s="5">
         <v>29</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D30" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="19"/>
@@ -5641,23 +5625,29 @@
       <c r="N30" s="20"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15">
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
+      <c r="D31" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="16"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15">
@@ -5670,39 +5660,33 @@
       <c r="E32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="16"/>
+      <c r="F32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" ht="15">
       <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+      <c r="D33" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -5714,27 +5698,25 @@
       <c r="C34" s="5">
         <v>33</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="20"/>
+      <c r="D34" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="3:15">
@@ -5745,15 +5727,15 @@
         <v>795</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
@@ -5770,20 +5752,18 @@
         <v>795</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="11">
-        <v>2</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>831</v>
-      </c>
+      <c r="H36" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="I36" s="11"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
@@ -5795,24 +5775,20 @@
       <c r="C37" s="5">
         <v>36</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>800</v>
+      <c r="D37" s="18" t="s">
+        <v>795</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>647</v>
+        <v>107</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>825</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -5824,20 +5800,24 @@
       <c r="C38" s="5">
         <v>37</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>800</v>
+      <c r="D38" s="18" t="s">
+        <v>795</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>644</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>821</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H38" s="11">
+        <v>2</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>831</v>
+      </c>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
@@ -5862,10 +5842,10 @@
         <v>56</v>
       </c>
       <c r="H39" s="11">
-        <v>2</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>832</v>
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>825</v>
       </c>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
@@ -5888,14 +5868,10 @@
         <v>647</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="11">
-        <v>2</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>833</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -5917,13 +5893,13 @@
         <v>647</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>799</v>
+        <v>56</v>
       </c>
       <c r="H41" s="11">
         <v>2</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
@@ -5943,13 +5919,17 @@
         <v>644</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>17</v>
+        <v>647</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H42" s="11">
+        <v>2</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>833</v>
+      </c>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -5965,16 +5945,20 @@
         <v>800</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+        <v>799</v>
+      </c>
+      <c r="H43" s="11">
+        <v>2</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>834</v>
+      </c>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
@@ -5982,16 +5966,22 @@
       <c r="N43" s="20"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="3:15" ht="15">
+    <row r="44" spans="3:15">
       <c r="C44" s="5">
         <v>43</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
+      <c r="D44" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="19"/>
@@ -6008,40 +5998,34 @@
       <c r="D45" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="16"/>
+      <c r="E45" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="3:15">
+    <row r="46" spans="3:15" ht="15">
       <c r="C46" s="5">
         <v>45</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D46" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="19"/>
@@ -6061,19 +6045,19 @@
       <c r="E47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>836</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="20"/>
+      <c r="F47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="16"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="3:15">
@@ -6087,7 +6071,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>837</v>
+        <v>107</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>2</v>
@@ -6112,14 +6096,12 @@
         <v>19</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>840</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
@@ -6128,43 +6110,51 @@
       <c r="N49" s="20"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="3:15" ht="15">
+    <row r="50" spans="3:15">
       <c r="C50" s="5">
         <v>49</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="D50" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="7"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="20"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="3:15">
       <c r="C51" s="5">
         <v>50</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>795</v>
+      <c r="D51" s="8" t="s">
+        <v>800</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>22</v>
+        <v>838</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="I51" s="11"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
@@ -6172,29 +6162,23 @@
       <c r="N51" s="20"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="3:15">
+    <row r="52" spans="3:15" ht="15">
       <c r="C52" s="5">
         <v>51</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D52" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="20"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="7"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="3:15">
@@ -6205,18 +6189,16 @@
         <v>795</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="I53" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
@@ -6232,10 +6214,10 @@
         <v>795</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>2</v>
@@ -6257,16 +6239,16 @@
         <v>795</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="19"/>
@@ -6284,16 +6266,16 @@
         <v>795</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="G56" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
@@ -6306,16 +6288,20 @@
         <v>56</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="F57" s="19">
-        <v>5</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="11"/>
+        <v>795</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="I57" s="11"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
@@ -6331,8 +6317,8 @@
       <c r="D58" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>277</v>
+      <c r="E58" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>17</v>
@@ -6354,17 +6340,15 @@
         <v>58</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>2</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="F59" s="19">
+        <v>5</v>
+      </c>
+      <c r="G59" s="19"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="19"/>
@@ -6378,102 +6362,100 @@
       <c r="C60" s="5">
         <v>59</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>807</v>
+      <c r="D60" s="18" t="s">
+        <v>795</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="F60" s="5">
-        <v>2</v>
-      </c>
-      <c r="G60" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="16"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="20"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="3:15">
       <c r="C61" s="5">
         <v>60</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>800</v>
+      <c r="D61" s="18" t="s">
+        <v>795</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="16"/>
+        <v>241</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="20"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="3:15">
       <c r="C62" s="5">
         <v>61</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="20"/>
+      <c r="D62" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="16"/>
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="3:15">
       <c r="C63" s="5">
         <v>62</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="20"/>
+      <c r="D63" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="16"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="3:15">
@@ -6484,15 +6466,15 @@
         <v>795</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H64" s="11"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
@@ -6512,17 +6494,15 @@
         <v>623</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>99</v>
+        <v>624</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="11">
-        <v>2</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>811</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="I65" s="11"/>
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
@@ -6534,50 +6514,54 @@
       <c r="C66" s="5">
         <v>65</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="5" t="s">
+      <c r="E66" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="16"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="20"/>
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="3:15">
       <c r="C67" s="5">
         <v>66</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="16"/>
+      <c r="E67" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="11">
+        <v>2</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="20"/>
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="3:15">
@@ -6585,21 +6569,19 @@
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>820</v>
+        <v>19</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>578</v>
+        <v>22</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="I68" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -6607,24 +6589,24 @@
       <c r="N68" s="16"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="3:15" ht="14.25">
+    <row r="69" spans="3:15">
       <c r="C69" s="5">
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>820</v>
+        <v>19</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="5"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -6639,16 +6621,18 @@
       <c r="D70" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>585</v>
+      <c r="E70" s="11" t="s">
+        <v>820</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>200</v>
+        <v>578</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -6657,7 +6641,7 @@
       <c r="N70" s="16"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="3:15">
+    <row r="71" spans="3:15" ht="14.25">
       <c r="C71" s="5">
         <v>70</v>
       </c>
@@ -6668,13 +6652,13 @@
         <v>820</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -6682,9 +6666,57 @@
       <c r="N71" s="16"/>
       <c r="O71" s="2"/>
     </row>
+    <row r="72" spans="3:15">
+      <c r="C72" s="5">
+        <v>71</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="16"/>
+    </row>
+    <row r="73" spans="3:15">
+      <c r="C73" s="5">
+        <v>72</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N71">
+  <conditionalFormatting sqref="N2:N73">
     <cfRule type="cellIs" dxfId="1" priority="65" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6693,16 +6725,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69:G71 G2:G40 G42:G67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G71:G73 G44:G69 G2:G42">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D59 D61:D67 D45:D49 D29:D30 D3:D4 D10:D17 D19:D27 D32:D43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53:D61 D63:D69 D47:D51 D31:D32 D3:D4 D21:D29 D34:D45 D10:D19">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F73">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E73">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
